--- a/data/trans_orig/P79A10_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P79A10_2023-Habitat-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>21727</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>15815</v>
+        <v>16086</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>25205</v>
+        <v>25545</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.796787117234281</v>
+        <v>0.7967871172342808</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5799752779376426</v>
+        <v>0.5899042036885062</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9243575399827354</v>
+        <v>0.9367948484290889</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>31</v>
@@ -762,19 +762,19 @@
         <v>19618</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>14105</v>
+        <v>13090</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>22372</v>
+        <v>22379</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.8504850488950731</v>
+        <v>0.8504850488950733</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6114940910583248</v>
+        <v>0.5674627457553183</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9698618777951973</v>
+        <v>0.9701530997717255</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>52</v>
@@ -783,19 +783,19 @@
         <v>41345</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>34018</v>
+        <v>34312</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>45896</v>
+        <v>46410</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.8213953511480878</v>
+        <v>0.8213953511480877</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6758237435718641</v>
+        <v>0.6816822196220897</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9118046676912525</v>
+        <v>0.9220250346317173</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>5541</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2063</v>
+        <v>1723</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>11453</v>
+        <v>11182</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.203212882765719</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.07564246001726456</v>
+        <v>0.06320515157091115</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4200247220623574</v>
+        <v>0.4100957963114938</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>3</v>
@@ -833,19 +833,19 @@
         <v>3449</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>695</v>
+        <v>688</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>8962</v>
+        <v>9977</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.1495149511049268</v>
+        <v>0.1495149511049269</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03013812220480285</v>
+        <v>0.02984690022827463</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3885059089416797</v>
+        <v>0.4325372542446803</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>8</v>
@@ -854,19 +854,19 @@
         <v>8990</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>4439</v>
+        <v>3925</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>16317</v>
+        <v>16023</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1786046488519123</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.08819533230874775</v>
+        <v>0.07797496536828269</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3241762564281374</v>
+        <v>0.3183177803779103</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>30457</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>20781</v>
+        <v>21404</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>35840</v>
+        <v>35797</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.819455821851361</v>
+        <v>0.8194558218513607</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.559115948248089</v>
+        <v>0.5758806797675757</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.96428787520253</v>
+        <v>0.9631310685361971</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>58</v>
@@ -979,19 +979,19 @@
         <v>42408</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>37094</v>
+        <v>36625</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>45809</v>
+        <v>45882</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.8634933123924307</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7552904872455942</v>
+        <v>0.7457383458111163</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9327500804817663</v>
+        <v>0.9342218362760245</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>88</v>
@@ -1000,19 +1000,19 @@
         <v>72865</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>63023</v>
+        <v>62228</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>79868</v>
+        <v>79616</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.8445229921671341</v>
+        <v>0.8445229921671343</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.7304504932425958</v>
+        <v>0.7212410535323465</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9256923925055159</v>
+        <v>0.9227711383699034</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>6710</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1327</v>
+        <v>1370</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>16386</v>
+        <v>15763</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.1805441781486391</v>
+        <v>0.180544178148639</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.03571212479747007</v>
+        <v>0.03686893146380285</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.440884051751911</v>
+        <v>0.4241193202324243</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>8</v>
@@ -1050,19 +1050,19 @@
         <v>6704</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>3303</v>
+        <v>3230</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>12018</v>
+        <v>12487</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1365066876075694</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.0672499195182336</v>
+        <v>0.06577816372397551</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2447095127544066</v>
+        <v>0.2542616541888836</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>11</v>
@@ -1071,19 +1071,19 @@
         <v>13414</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>6411</v>
+        <v>6663</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>23256</v>
+        <v>24051</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1554770078328658</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.07430760749448505</v>
+        <v>0.07722886163009651</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2695495067574051</v>
+        <v>0.2787589464676538</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>24673</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>15069</v>
+        <v>14577</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>31670</v>
+        <v>31342</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.6404083319543699</v>
+        <v>0.6404083319543697</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3911326541868175</v>
+        <v>0.3783477674973176</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8220197784896917</v>
+        <v>0.8135144871172083</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>21</v>
@@ -1196,19 +1196,19 @@
         <v>17879</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>11544</v>
+        <v>11102</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>22116</v>
+        <v>22191</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6950519825565392</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4487626667532363</v>
+        <v>0.4316077428842517</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8597625488373148</v>
+        <v>0.8627026004056563</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>40</v>
@@ -1217,19 +1217,19 @@
         <v>42552</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>31488</v>
+        <v>31661</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>51370</v>
+        <v>51472</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6622853143500212</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4900821909362921</v>
+        <v>0.4927825922293639</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7995340770888044</v>
+        <v>0.8011180775950674</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>13854</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>6857</v>
+        <v>7185</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>23458</v>
+        <v>23950</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3595916680456301</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1779802215103086</v>
+        <v>0.1864855128827915</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6088673458131828</v>
+        <v>0.6216522325026826</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>7</v>
@@ -1267,19 +1267,19 @@
         <v>7844</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>3607</v>
+        <v>3532</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>14179</v>
+        <v>14621</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3049480174434606</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1402374511626851</v>
+        <v>0.1372973995943438</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5512373332467636</v>
+        <v>0.5683922571157484</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>16</v>
@@ -1288,19 +1288,19 @@
         <v>21698</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>12880</v>
+        <v>12778</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>32762</v>
+        <v>32589</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3377146856499788</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2004659229111955</v>
+        <v>0.1988819224049327</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5099178090637076</v>
+        <v>0.5072174077706362</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>50794</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>45457</v>
+        <v>45567</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>53509</v>
+        <v>53550</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.9295115697546957</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.8318379945339098</v>
+        <v>0.8338488744654922</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.9791948864263567</v>
+        <v>0.9799495691706435</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>56</v>
@@ -1413,19 +1413,19 @@
         <v>40455</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>35770</v>
+        <v>35733</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>43853</v>
+        <v>43986</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.8598449661533019</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.7602740015577436</v>
+        <v>0.7594890094827389</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.9320800626312459</v>
+        <v>0.9348934579373297</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>105</v>
@@ -1434,19 +1434,19 @@
         <v>91249</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>84331</v>
+        <v>84235</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>95605</v>
+        <v>95634</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.8972802573640765</v>
+        <v>0.8972802573640762</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.8292571793075564</v>
+        <v>0.828313414883457</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.9401180180928637</v>
+        <v>0.9403983204860441</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>3852</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1137</v>
+        <v>1096</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>9189</v>
+        <v>9079</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.07048843024530434</v>
+        <v>0.07048843024530432</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.02080511357364347</v>
+        <v>0.02005043082935655</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1681620054660902</v>
+        <v>0.1661511255345084</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>10</v>
@@ -1484,19 +1484,19 @@
         <v>6594</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3196</v>
+        <v>3063</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>11279</v>
+        <v>11316</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1401550338466981</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.06791993736875408</v>
+        <v>0.06510654206267014</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2397259984422564</v>
+        <v>0.2405109905172608</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>14</v>
@@ -1505,19 +1505,19 @@
         <v>10446</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6090</v>
+        <v>6061</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>17364</v>
+        <v>17460</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.1027197426359237</v>
+        <v>0.1027197426359236</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.05988198190713651</v>
+        <v>0.05960167951395594</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1707428206924437</v>
+        <v>0.171686585116544</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>127650</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>113429</v>
+        <v>111155</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>138324</v>
+        <v>139101</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.8099244944271486</v>
+        <v>0.8099244944271488</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7196930135808057</v>
+        <v>0.7052665717691223</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8776493823390542</v>
+        <v>0.8825819602673148</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>166</v>
@@ -1630,19 +1630,19 @@
         <v>120360</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>109460</v>
+        <v>109711</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>128443</v>
+        <v>128303</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.8303475713137558</v>
+        <v>0.8303475713137559</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7551531648356484</v>
+        <v>0.7568856540348119</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8861120418391141</v>
+        <v>0.8851486054343913</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>285</v>
@@ -1651,19 +1651,19 @@
         <v>248009</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>227916</v>
+        <v>229952</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>261093</v>
+        <v>261883</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.8197088769221691</v>
+        <v>0.819708876922169</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7532972638394984</v>
+        <v>0.7600265780192591</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.862950913996074</v>
+        <v>0.8655613211713549</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>29957</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>19283</v>
+        <v>18506</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>44178</v>
+        <v>46452</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1900755055728512</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.122350617660946</v>
+        <v>0.1174180397326852</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2803069864191945</v>
+        <v>0.2947334282308774</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>28</v>
@@ -1701,19 +1701,19 @@
         <v>24591</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>16508</v>
+        <v>16648</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>35491</v>
+        <v>35240</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1696524286862442</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1138879581608854</v>
+        <v>0.1148513945656087</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2448468351643511</v>
+        <v>0.2431143459651882</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>49</v>
@@ -1722,19 +1722,19 @@
         <v>54549</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>41465</v>
+        <v>40675</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>74642</v>
+        <v>72606</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1802911230778308</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.137049086003926</v>
+        <v>0.1344386788286453</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.246702736160502</v>
+        <v>0.2399734219807409</v>
       </c>
     </row>
     <row r="18">
